--- a/wsl.xlsx
+++ b/wsl.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37862\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B0B87B-DFDB-4486-A2A2-7F840EC5CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF66B5D-59EC-46DE-9345-5810FBAE7235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="单节点(伪集群)环境搭建" sheetId="2" r:id="rId2"/>
-    <sheet name="hive4" sheetId="3" r:id="rId3"/>
+    <sheet name="hive4_DML" sheetId="3" r:id="rId3"/>
     <sheet name="hive3.x" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="267">
   <si>
     <t>wsl --shutdown</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1417,6 +1417,62 @@
   </si>
   <si>
     <t>(3, 'Charlie', 3);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/sunlong12138/dragon_home</t>
+  </si>
+  <si>
+    <t>SET iceberg.catalog.custom_catalog.uri=thrift://localhost:9083;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update ice_table_1 set name='updated_Bob' where id=2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削除データ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新データ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateをサポートしない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from ice_table_1 where id=1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1570,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1589,6 +1645,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2029,6 +2086,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>303733</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>37095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C41BF5-5DCD-4F6D-F4A8-AED76F122BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="17830800"/>
+          <a:ext cx="8533333" cy="8038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2216,6 +2317,94 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>302533</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>47551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A22F3D-8339-1E41-AC4E-87FA37A95760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="38709600"/>
+          <a:ext cx="18133333" cy="590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>226343</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>114195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5F8878-BFEF-ACBA-607B-2254A03F2B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="40081200"/>
+          <a:ext cx="18057143" cy="838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2486,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2515,6 +2704,16 @@
     <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3044,7 +3243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92A6FA8-1744-4A2F-A6AC-67AF105D2C84}">
   <dimension ref="B2:D227"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -3671,9 +3872,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D562625A-C3E6-4212-89B6-56DCBE202CA0}">
-  <dimension ref="B2:S152"/>
+  <dimension ref="B2:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="K140" sqref="K140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -4116,7 +4319,7 @@
     </row>
     <row r="73" spans="2:8">
       <c r="C73" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -4208,9 +4411,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" ht="18">
       <c r="B138" s="5" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" spans="2:3">
@@ -4278,9 +4481,45 @@
         <v>255</v>
       </c>
     </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" ht="18">
+      <c r="B206" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="C207" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="C208" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="18.75">
+      <c r="C215" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="18">
+      <c r="B223" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/wsl.xlsx
+++ b/wsl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37862\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF66B5D-59EC-46DE-9345-5810FBAE7235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E21D0-E7BA-4442-A70A-71835967B042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="458">
   <si>
     <t>wsl --shutdown</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1475,12 +1475,1963 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.IcebergIO.readRows()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        IcebergCatalogConfig catalogConfig =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .build();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Row raw = context.element();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        context.output(raw);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pipeline.run().waitUntilFinish();</t>
+  </si>
+  <si>
+    <t>package sl.lyt.main.hive3;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.runners.flink.FlinkRunner;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.Pipeline;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.coders.RowCoder;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.io.iceberg.IcebergCatalogConfig;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.io.iceberg.IcebergIO;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.options.PipelineOptions;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.options.PipelineOptionsFactory;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.transforms.DoFn;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.transforms.ParDo;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.CatalogUtil;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.Schema;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.catalog.TableIdentifier;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.types.Types;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.values.Row;</t>
+  </si>
+  <si>
+    <t>public class IcebergIOReadTest {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        PipelineOptions pipelineOptions = PipelineOptionsFactory.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        pipelineOptions.setRunner(FlinkRunner.class);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Pipeline pipeline = Pipeline.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        TableIdentifier tableId = TableIdentifier.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("default", "ice_table_1");</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        Schema iceberg_schema = new Schema(</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Types.NestedField.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1, "id", Types.LongType.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>()),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Types.NestedField.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(2, "name", Types.StringType.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>()),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Types.NestedField.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(3, "partition_id", Types.LongType.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                IcebergCatalogConfig.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>builder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .setName("custom_iceberg")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        .setIcebergCatalogType(CatalogUtil.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ICEBERG_CATALOG_TYPE_HIVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .setWarehouseLocation("hdfs://localhost:9000/user/hive3/warehouse")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .setUri("thrift://localhost:9083")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                .apply(IcebergIO.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>readRows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(catalogConfig).from(tableId))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                .apply(ParDo.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(new DoFn&lt;Row, Row&gt;() {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                    @ProcessElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    public void process(ProcessContext context) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println("raw = " + raw);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                .setCoder(RowCoder.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(SchemaAndRowConversions.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>icebergSchemaToBeamSchema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(iceberg_schema)));</t>
+    </r>
+  </si>
+  <si>
+    <t>pom.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;exclusions&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;exclusion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/exclusion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/exclusions&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;maven.compiler.source&gt;8&lt;/maven.compiler.source&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;maven.compiler.target&gt;8&lt;/maven.compiler.target&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;hive.version&gt;3.1.3&lt;/hive.version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;artifactId&gt;beam-runners-direct-java&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;groupId&gt;org.apache.avro&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;artifactId&gt;avro&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;groupId&gt;org.apache.hadoop&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;artifactId&gt;hadoop-hdfs&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;artifactId&gt;iceberg-hive-metastore&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;version&gt;${iceberg.version}&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t>2.IcebergIO.writeRows()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ImmutableList&lt;Record&gt; records =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            rows.add(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            .build());</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.sdk.transforms.Create;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.PartitionSpec;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.vendor.guava.v32_1_2_jre.com.google.common.collect.ImmutableList;</t>
+  </si>
+  <si>
+    <t>import org.apache.beam.vendor.guava.v32_1_2_jre.com.google.common.collect.ImmutableMap;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.data.Record;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.data.GenericRecord;</t>
+  </si>
+  <si>
+    <t>import java.util.ArrayList;</t>
+  </si>
+  <si>
+    <t>public class IcebergIOWriteTest {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public static Schema </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ICEBERG_SCHEMA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>= new Schema(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Types.NestedField.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1, "id", Types.LongType.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>()),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Types.NestedField.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(2, "name", Types.StringType.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>()),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Types.NestedField.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(3, "partition_id", Types.LongType.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Record genericRecord = GenericRecord.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ICEBERG_SCHEMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                ImmutableList.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        genericRecord.copy(ImmutableMap.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("id", 4L, "name", "John", "partition_id", 1L)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        genericRecord.copy(ImmutableMap.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("id", 5L, "name", "Jack", "partition_id", 2L)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        genericRecord.copy(ImmutableMap.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("id", 6L, "name", "Tom", "partition_id", 3L)));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        PartitionSpec partitionSpec = PartitionSpec.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>builderFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ICEBERG_SCHEMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                .identity("partition_id")  // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> identity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分区</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.build();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                .apply("Records To Add", Create.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>asRows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(records)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                .setRowSchema(SchemaAndRowConversions.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>icebergSchemaToBeamSchema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ICEBERG_SCHEMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                .apply("Append To Table", IcebergIO.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>writeRows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(catalogConfig).to(tableId));</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static ImmutableList&lt;Row&gt; asRows(Iterable&lt;Record&gt; records) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ArrayList&lt;Row&gt; rows = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (Record record : records) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    Row.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>withSchema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(SchemaAndRowConversions.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>icebergSchemaToBeamSchema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ICEBERG_SCHEMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                            .withFieldValue("id", record.getField("id"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            .withFieldValue("name", record.getField("name"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            .withFieldValue("partition_id", record.getField("partition_id"))</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        return ImmutableList.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>copyOf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(rows);</t>
+    </r>
+  </si>
+  <si>
+    <t>iceberg java API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//import avro.shaded.com.google.common.collect.ImmutableList;</t>
+  </si>
+  <si>
+    <t>//import avro.shaded.com.google.common.collect.ImmutableMap;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .build();</t>
+  </si>
+  <si>
+    <t>//        GenericRecord record = GenericRecord.create(schema);</t>
+  </si>
+  <si>
+    <t>//        ImmutableList.Builder&lt;GenericRecord&gt; builder = ImmutableList.builder();</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>//        builder.add(record.copy(ImmutableMap.of("id", 1, "name", "Alice", "ts", "2023-10-01 08:30:00")));</t>
+  </si>
+  <si>
+    <t>//        builder.add(record.copy(ImmutableMap.of("id", 2, "name", "Bob", "ts", "2023-10-01 14:15:00")));</t>
+  </si>
+  <si>
+    <t>//        builder.add(record.copy(ImmutableMap.of("id", 3, "name", "Charlie", "ts", "2023-10-02 09:45:00")));</t>
+  </si>
+  <si>
+    <t>//        ImmutableList&lt;GenericRecord&gt; records = builder.build();</t>
+  </si>
+  <si>
+    <t>//        String filepath = table.location() + "/" + UUID.randomUUID().toString();</t>
+  </si>
+  <si>
+    <t>//        OutputFile file = table.io().newOutputFile(filepath);</t>
+  </si>
+  <si>
+    <t>//        DataWriter&lt;GenericRecord&gt; dataWriter =</t>
+  </si>
+  <si>
+    <t>//                Parquet.writeData(file)</t>
+  </si>
+  <si>
+    <t>//                        .schema(schema)</t>
+  </si>
+  <si>
+    <t>//                        .createWriterFunc(GenericParquetWriter::buildWriter)</t>
+  </si>
+  <si>
+    <t>//                        .overwrite()</t>
+  </si>
+  <si>
+    <t>//                        .withSpec(PartitionSpec.unpartitioned())</t>
+  </si>
+  <si>
+    <t>//                        .build();</t>
+  </si>
+  <si>
+    <t>//        try {</t>
+  </si>
+  <si>
+    <t>//            dataWriter.write(records);</t>
+  </si>
+  <si>
+    <t>//        } finally {</t>
+  </si>
+  <si>
+    <t>//            dataWriter.close();</t>
+  </si>
+  <si>
+    <t>//        }</t>
+  </si>
+  <si>
+    <t>//        DataFile dataFile = dataWriter.toDataFile();</t>
+  </si>
+  <si>
+    <t>//        table.newAppend().appendFile(dataFile).commit();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       Long id, String name, Timestamp ts) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        record.set(idIndex, id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        record.set(nameIndex, name);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        record.set(tsIndex, ts);</t>
+  </si>
+  <si>
+    <t>//        try (DataWriter&lt;Record&gt; writer = DataWriters.builderFor(table)</t>
+  </si>
+  <si>
+    <t>//                .createWriterFunc(GenericTaskWriter::createWriter)</t>
+  </si>
+  <si>
+    <t>//                .build()) {</t>
+  </si>
+  <si>
+    <t>//            for (Record record : records) {</t>
+  </si>
+  <si>
+    <t>//                writer.write(record);</t>
+  </si>
+  <si>
+    <t>//            }</t>
+  </si>
+  <si>
+    <t>//            DataFile dataFile = writer.toDataFile();</t>
+  </si>
+  <si>
+    <t>//            table.newAppend()</t>
+  </si>
+  <si>
+    <t>//                    .appendFile(dataFile)</t>
+  </si>
+  <si>
+    <t>//                    .commit();</t>
+  </si>
+  <si>
+    <t>//        } catch (Exception e) {</t>
+  </si>
+  <si>
+    <t>//            e.printStackTrace();</t>
+  </si>
+  <si>
+    <t>import org.apache.hadoop.conf.Configuration;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.DataFile;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.Table;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.hive.HiveCatalog;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.io.DataWriter;</t>
+  </si>
+  <si>
+    <t>import java.util.Arrays;</t>
+  </si>
+  <si>
+    <t>import java.util.HashMap;</t>
+  </si>
+  <si>
+    <t>import java.util.List;</t>
+  </si>
+  <si>
+    <t>import java.util.Map;</t>
+  </si>
+  <si>
+    <t>import java.sql.Timestamp;</t>
+  </si>
+  <si>
+    <t>import java.time.Instant;</t>
+  </si>
+  <si>
+    <t>public class IcebergAPITest {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>１．カスタムカタログ新規</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>HiveCatalog catalog = new HiveCatalog();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        catalog.setConf(new Configuration());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Map&lt;String, String&gt; properties = new HashMap&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        properties.put("warehouse", "hdfs://localhost:9000/user/hive3/warehouse");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        properties.put("uri", "thrift://localhost:9083");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        catalog.initialize("custom_hive_catalog", properties);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>２．</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>とテーブル名を定義</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>TableIdentifier name = TableIdentifier.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("default", "ice_table_java");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>３．テーブル構成を定義</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Schema schema = new Schema(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Types.NestedField.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(3, "ts", Types.TimestampType.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>withoutZone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>４．パーティションを定義</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>PartitionSpec spec = PartitionSpec.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>builderFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(schema)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                .day("ts")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>５．テーブル新規</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Table table = catalog.createTable(name, schema, spec);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>６．テーブルデータ追加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>//1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建表，构建插入数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//        // 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将记录写入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>parquet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//        // 3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将文件写入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取字段索引（更安全的做法）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int idIndex = table.schema().findField("id").fieldId();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        int nameIndex = table.schema().findField("name").fieldId();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int tsIndex = table.schema().findField("ts").fieldId();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;Record&gt; initialRecords = Arrays.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>asList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>createRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table, idIndex, nameIndex, tsIndex, 1L, "Alice", Timestamp.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(Instant.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("2023-01-01T00:00:00Z"))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>createRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table, idIndex, nameIndex, tsIndex, 2L, "Bob", Timestamp.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(Instant.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("2023-01-02T00:00:00Z"))),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>createRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table, idIndex, nameIndex, tsIndex, 3L, "Charlie", Timestamp.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(Instant.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("2023-01-03T00:00:00Z")))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>DataWriter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行高效写入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>writeRecordsToTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table, initialRecords);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>７．テーブルデータ更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>８．テーブルデータ削除</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Schema table_schema = table.schema();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println("table_schema = " + table_schema);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    private static Record createRecord(Table table, int idIndex, int nameIndex, int tsIndex,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Record record = GenericRecord.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table.schema());</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        return record;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private static void writeRecordsToTable(Table table, List&lt;Record&gt; records) {</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +3556,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1626,7 +3585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1646,6 +3605,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2409,6 +4369,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>237495</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>75851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68876202-6D52-73F4-D964-C8AA8CA9CA55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="71237475"/>
+          <a:ext cx="5038095" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3872,10 +5876,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D562625A-C3E6-4212-89B6-56DCBE202CA0}">
-  <dimension ref="B2:S223"/>
+  <dimension ref="B2:S596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="I563" sqref="I563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4516,6 +6520,1780 @@
         <v>265</v>
       </c>
     </row>
+    <row r="224" spans="2:3">
+      <c r="B224" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" ht="18">
+      <c r="B225" s="12"/>
+      <c r="C225" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" ht="18">
+      <c r="B226" s="12"/>
+      <c r="C226" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="18">
+      <c r="B227" s="12"/>
+      <c r="C227" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="18">
+      <c r="B228" s="12"/>
+      <c r="C228" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" ht="18">
+      <c r="B229" s="12"/>
+      <c r="C229" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" ht="18">
+      <c r="B230" s="12"/>
+      <c r="C230" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="18">
+      <c r="B231" s="12"/>
+      <c r="C231" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" ht="18">
+      <c r="B232" s="12"/>
+      <c r="C232" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="18">
+      <c r="B233" s="12"/>
+      <c r="C233" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="18">
+      <c r="B234" s="12"/>
+      <c r="C234" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="18">
+      <c r="B235" s="12"/>
+      <c r="C235" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" ht="18">
+      <c r="B236" s="12"/>
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="2:3" ht="18">
+      <c r="B237" s="12"/>
+      <c r="C237" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="18">
+      <c r="B238" s="12"/>
+      <c r="C238" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="18">
+      <c r="B239" s="12"/>
+      <c r="C239" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="18">
+      <c r="B240" s="12"/>
+      <c r="C240" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="18">
+      <c r="B241" s="12"/>
+      <c r="C241" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="18">
+      <c r="B242" s="12"/>
+      <c r="C242" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="18">
+      <c r="B243" s="12"/>
+      <c r="C243" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="18">
+      <c r="B244" s="12"/>
+      <c r="C244" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" ht="18">
+      <c r="B245" s="12"/>
+      <c r="C245" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" ht="18">
+      <c r="B246" s="12"/>
+      <c r="C246" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" ht="18">
+      <c r="B247" s="12"/>
+      <c r="C247" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="18">
+      <c r="B248" s="12"/>
+      <c r="C248" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" ht="18">
+      <c r="B249" s="12"/>
+      <c r="C249" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" ht="18">
+      <c r="B250" s="12"/>
+      <c r="C250" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="18">
+      <c r="B251" s="12"/>
+      <c r="C251" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" ht="18">
+      <c r="B252" s="12"/>
+      <c r="C252" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="18">
+      <c r="B253" s="12"/>
+      <c r="C253" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="18">
+      <c r="B254" s="12"/>
+      <c r="C254" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" ht="18">
+      <c r="B255" s="12"/>
+      <c r="C255" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="18">
+      <c r="B256" s="12"/>
+      <c r="C256" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="18">
+      <c r="B257" s="12"/>
+      <c r="C257" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" ht="18">
+      <c r="B258" s="12"/>
+      <c r="C258" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" ht="18">
+      <c r="B259" s="12"/>
+      <c r="C259" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" ht="18">
+      <c r="B260" s="12"/>
+      <c r="C260" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" ht="18">
+      <c r="B261" s="12"/>
+      <c r="C261" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" ht="18">
+      <c r="B262" s="12"/>
+      <c r="C262" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" ht="18">
+      <c r="B263" s="12"/>
+      <c r="C263" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" ht="18">
+      <c r="B264" s="12"/>
+      <c r="C264" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" ht="18">
+      <c r="B265" s="12"/>
+      <c r="C265" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" ht="18">
+      <c r="B266" s="12"/>
+      <c r="C266" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" ht="18">
+      <c r="B267" s="12"/>
+      <c r="C267" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" ht="18">
+      <c r="B268" s="12"/>
+      <c r="C268" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="18">
+      <c r="B269" s="12"/>
+      <c r="C269" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" ht="18">
+      <c r="B270" s="12"/>
+      <c r="C270" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" ht="18">
+      <c r="B271" s="12"/>
+      <c r="C271" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" ht="18">
+      <c r="B272" s="12"/>
+      <c r="C272" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" ht="18">
+      <c r="B273" s="12"/>
+      <c r="C273" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" ht="18">
+      <c r="B274" s="12"/>
+      <c r="C274" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" ht="18">
+      <c r="B275" s="12"/>
+      <c r="C275" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" ht="18">
+      <c r="B276" s="12"/>
+      <c r="C276" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" ht="18">
+      <c r="B277" s="12"/>
+      <c r="C277" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" ht="18">
+      <c r="B278" s="12"/>
+      <c r="C278" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" ht="18">
+      <c r="B279" s="12"/>
+      <c r="C279" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" ht="18">
+      <c r="B280" s="12"/>
+      <c r="C280" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" ht="18">
+      <c r="B281" s="12"/>
+      <c r="C281" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" ht="18">
+      <c r="B282" s="12"/>
+      <c r="C282" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" ht="18">
+      <c r="B283" s="12"/>
+      <c r="C283" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="18">
+      <c r="B284" s="12"/>
+      <c r="C284" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" ht="18">
+      <c r="B285" s="12"/>
+      <c r="C285" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" ht="18">
+      <c r="B286" s="12"/>
+      <c r="C286" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" ht="18">
+      <c r="B287" s="12"/>
+      <c r="C287" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" ht="18">
+      <c r="B288" s="12"/>
+      <c r="C288" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" ht="18">
+      <c r="B289" s="12"/>
+      <c r="C289" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" ht="18">
+      <c r="B290" s="12"/>
+      <c r="C290" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" ht="18">
+      <c r="B291" s="12"/>
+      <c r="C291" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" ht="18">
+      <c r="B292" s="12"/>
+      <c r="C292" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" ht="18">
+      <c r="B293" s="12"/>
+      <c r="C293" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" ht="18">
+      <c r="B294" s="12"/>
+      <c r="C294" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" ht="18">
+      <c r="B295" s="12"/>
+      <c r="C295" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" ht="18">
+      <c r="B296" s="12"/>
+      <c r="C296" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" ht="18">
+      <c r="B297" s="12"/>
+      <c r="C297" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" ht="18">
+      <c r="B298" s="12"/>
+      <c r="C298" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" ht="18">
+      <c r="B299" s="12"/>
+      <c r="C299" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" ht="18">
+      <c r="B300" s="12"/>
+      <c r="C300" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" ht="18">
+      <c r="B301" s="12"/>
+      <c r="C301" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" ht="18">
+      <c r="B302" s="12"/>
+      <c r="C302" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" ht="18">
+      <c r="B303" s="12"/>
+      <c r="C303" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" ht="18">
+      <c r="B304" s="12"/>
+      <c r="C304" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" ht="18">
+      <c r="B305" s="12"/>
+      <c r="C305" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" ht="18">
+      <c r="B306" s="12"/>
+      <c r="C306" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" ht="18">
+      <c r="B307" s="12"/>
+      <c r="C307" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" ht="18">
+      <c r="B308" s="12"/>
+      <c r="C308" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" ht="18">
+      <c r="B309" s="12"/>
+      <c r="C309" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" ht="18">
+      <c r="B310" s="12"/>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="C312" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="C313" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="C314" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="C315" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="C316" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="C317" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="C318" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="C319" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="C320" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3">
+      <c r="C323" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3">
+      <c r="C324" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3">
+      <c r="C325" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3">
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="3:3">
+      <c r="C327" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3">
+      <c r="C328" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3">
+      <c r="C329" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3">
+      <c r="C330" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3">
+      <c r="C331" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3">
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="3:3">
+      <c r="C333" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3">
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="3:3">
+      <c r="C335" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3">
+      <c r="C336" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3">
+      <c r="C339" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3">
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="3:3">
+      <c r="C341" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3">
+      <c r="C342" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3">
+      <c r="C346" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3">
+      <c r="C347" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3">
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="3:3">
+      <c r="C349" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3">
+      <c r="C351" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3">
+      <c r="C358" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="3:3">
+      <c r="C361" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3">
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="3:3">
+      <c r="C363" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3">
+      <c r="C364" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="B382" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="C383" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3">
+      <c r="C400" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="3:3">
+      <c r="C418" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3">
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="3:3">
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3">
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3">
+      <c r="C427" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3">
+      <c r="C428" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3">
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="3:3">
+      <c r="C431" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3">
+      <c r="C432" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3">
+      <c r="C433" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3">
+      <c r="C434" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3">
+      <c r="C435" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3">
+      <c r="C438" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3">
+      <c r="C439" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3">
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="3:3">
+      <c r="C441" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3">
+      <c r="C442" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3">
+      <c r="C443" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3">
+      <c r="C444" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3">
+      <c r="C445" s="3"/>
+    </row>
+    <row r="446" spans="3:3">
+      <c r="C446" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3">
+      <c r="C447" s="3"/>
+    </row>
+    <row r="448" spans="3:3">
+      <c r="C448" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3">
+      <c r="C449" s="3"/>
+    </row>
+    <row r="450" spans="2:3">
+      <c r="C450" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3">
+      <c r="C451" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3">
+      <c r="C452" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3">
+      <c r="C453" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3">
+      <c r="C454" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="C455" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3">
+      <c r="C456" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3">
+      <c r="C457" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3">
+      <c r="C458" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3">
+      <c r="C459" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3">
+      <c r="C460" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3">
+      <c r="C461" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3">
+      <c r="C462" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3">
+      <c r="B464" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3">
+      <c r="C466" s="3"/>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" s="3"/>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3">
+      <c r="C482" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3">
+      <c r="C483" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3">
+      <c r="C484" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3">
+      <c r="C485" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3">
+      <c r="C486" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3">
+      <c r="C487" s="3"/>
+    </row>
+    <row r="488" spans="3:3">
+      <c r="C488" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3">
+      <c r="C489" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3">
+      <c r="C490" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3">
+      <c r="C491" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3">
+      <c r="C492" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3">
+      <c r="C493" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3">
+      <c r="C494" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3">
+      <c r="C495" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3">
+      <c r="C496" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497" s="3"/>
+    </row>
+    <row r="498" spans="3:3">
+      <c r="C498" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3">
+      <c r="C499" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3">
+      <c r="C500" s="3"/>
+    </row>
+    <row r="501" spans="3:3">
+      <c r="C501" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3">
+      <c r="C502" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3">
+      <c r="C503" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3">
+      <c r="C504" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3">
+      <c r="C505" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3">
+      <c r="C506" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3">
+      <c r="C507" s="3"/>
+    </row>
+    <row r="508" spans="3:3">
+      <c r="C508" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3">
+      <c r="C509" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3">
+      <c r="C510" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3">
+      <c r="C511" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3">
+      <c r="C512" s="3"/>
+    </row>
+    <row r="513" spans="3:3">
+      <c r="C513" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3">
+      <c r="C514" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3">
+      <c r="C515" s="3"/>
+    </row>
+    <row r="516" spans="3:3">
+      <c r="C516" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3">
+      <c r="C517" s="3"/>
+    </row>
+    <row r="518" spans="3:3">
+      <c r="C518" s="3"/>
+    </row>
+    <row r="519" spans="3:3">
+      <c r="C519" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3">
+      <c r="C520" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3">
+      <c r="C521" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3">
+      <c r="C522" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3">
+      <c r="C523" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3">
+      <c r="C524" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3">
+      <c r="C525" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3">
+      <c r="C526" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3">
+      <c r="C527" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3">
+      <c r="C528" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3">
+      <c r="C529" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3">
+      <c r="C530" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3">
+      <c r="C531" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3">
+      <c r="C532" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3">
+      <c r="C533" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3">
+      <c r="C534" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3">
+      <c r="C535" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3">
+      <c r="C536" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3">
+      <c r="C537" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3">
+      <c r="C538" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3">
+      <c r="C539" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3">
+      <c r="C540" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3">
+      <c r="C541" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3">
+      <c r="C542" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3">
+      <c r="C543" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3">
+      <c r="C544" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3">
+      <c r="C545" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3">
+      <c r="C546" s="3"/>
+    </row>
+    <row r="547" spans="3:3">
+      <c r="C547" s="3"/>
+    </row>
+    <row r="548" spans="3:3">
+      <c r="C548" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3">
+      <c r="C549" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3">
+      <c r="C550" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3">
+      <c r="C551" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3">
+      <c r="C552" s="3"/>
+    </row>
+    <row r="553" spans="3:3">
+      <c r="C553" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3">
+      <c r="C554" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3">
+      <c r="C555" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3">
+      <c r="C556" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3">
+      <c r="C557" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3">
+      <c r="C558" s="3"/>
+    </row>
+    <row r="559" spans="3:3">
+      <c r="C559" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3">
+      <c r="C560" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3">
+      <c r="C561" s="3"/>
+    </row>
+    <row r="562" spans="3:3">
+      <c r="C562" s="3"/>
+    </row>
+    <row r="563" spans="3:3">
+      <c r="C563" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3">
+      <c r="C564" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3">
+      <c r="C565" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3">
+      <c r="C566" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="567" spans="3:3">
+      <c r="C567" s="3"/>
+    </row>
+    <row r="568" spans="3:3">
+      <c r="C568" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="569" spans="3:3">
+      <c r="C569" s="3"/>
+    </row>
+    <row r="570" spans="3:3">
+      <c r="C570" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="571" spans="3:3">
+      <c r="C571" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3">
+      <c r="C572" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3">
+      <c r="C573" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3">
+      <c r="C574" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3">
+      <c r="C575" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="576" spans="3:3">
+      <c r="C576" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="577" spans="3:3">
+      <c r="C577" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3">
+      <c r="C578" s="3"/>
+    </row>
+    <row r="579" spans="3:3">
+      <c r="C579" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="580" spans="3:3">
+      <c r="C580" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3">
+      <c r="C581" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3">
+      <c r="C582" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="583" spans="3:3">
+      <c r="C583" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="584" spans="3:3">
+      <c r="C584" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="585" spans="3:3">
+      <c r="C585" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="586" spans="3:3">
+      <c r="C586" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="587" spans="3:3">
+      <c r="C587" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="588" spans="3:3">
+      <c r="C588" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="589" spans="3:3">
+      <c r="C589" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="590" spans="3:3">
+      <c r="C590" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="591" spans="3:3">
+      <c r="C591" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="592" spans="3:3">
+      <c r="C592" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="593" spans="3:3">
+      <c r="C593" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="594" spans="3:3">
+      <c r="C594" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="595" spans="3:3">
+      <c r="C595" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="596" spans="3:3">
+      <c r="C596" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wsl.xlsx
+++ b/wsl.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37862\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E21D0-E7BA-4442-A70A-71835967B042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD248D7F-BFCA-4196-9698-44B16D164410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="单节点(伪集群)环境搭建" sheetId="2" r:id="rId2"/>
     <sheet name="hive4_DML" sheetId="3" r:id="rId3"/>
     <sheet name="hive3.x" sheetId="4" r:id="rId4"/>
+    <sheet name="maven_build" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="741">
   <si>
     <t>wsl --shutdown</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3425,6 +3427,1320 @@
   </si>
   <si>
     <t xml:space="preserve">    private static void writeRecordsToTable(Table table, List&lt;Record&gt; records) {</t>
+  </si>
+  <si>
+    <t>(1, 'Alice', timestamp '2023-10-01 08:30:00'),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;properties&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/properties&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;dependencies&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;dependency&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;exclusions&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;exclusion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;/exclusion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/exclusions&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--        &lt;dependency&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--            &lt;groupId&gt;org.apache.hive&lt;/groupId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--            &lt;artifactId&gt;hive-jdbc&lt;/artifactId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--            &lt;version&gt;${hive.version}&lt;/version&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--        &lt;/dependency&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--            &lt;artifactId&gt;hive-service&lt;/artifactId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--            &lt;exclusions&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--                &lt;exclusion&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--                    &lt;groupId&gt;org.apache.hadoop&lt;/groupId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--                    &lt;artifactId&gt;hadoop-hdfs&lt;/artifactId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--                &lt;/exclusion&gt;--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--            &lt;/exclusions&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;groupId&gt;org.apache.iceberg&lt;/groupId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;artifactId&gt;iceberg-hive-runtime&lt;/artifactId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;version&gt;1.4.2&lt;/version&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;scope&gt;provided&lt;/scope&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--        &lt;/dependency&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--        &lt;dependency&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;artifactId&gt;iceberg-hive&lt;/artifactId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;version&gt;${iceberg.version}&lt;/version&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!-- Beam Kafka IO --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;groupId&gt;org.apache.beam&lt;/groupId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;artifactId&gt;beam-sdks-java-io-kafka&lt;/artifactId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;version&gt;${beam.version}&lt;/version&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;groupId&gt;org.apache.kafka&lt;/groupId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;artifactId&gt;kafka-clients&lt;/artifactId&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;!--            &lt;version&gt;${kafka.version}&lt;/version&gt;--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;build&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;plugins&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;executions&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;execution&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;goals&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;/goals&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;configuration&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;/configuration&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;/execution&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;/executions&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/plugin&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;configuration&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;archive&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;manifest&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;/manifest&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;/archive&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;/configuration&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/plugins&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/build&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/project&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;project xmlns="http://maven.apache.org/POM/4.0.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         xsi:schemaLocation="http://maven.apache.org/POM/4.0.0 http://maven.apache.org/xsd/maven-4.0.0.xsd"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;modelVersion&gt;4.0.0&lt;/modelVersion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;groupId&gt;org.example&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;artifactId&gt;IcebergTest&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;version&gt;1.0-SNAPSHOT&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;maven.compiler.source&gt;8&lt;/maven.compiler.source&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;maven.compiler.target&gt;8&lt;/maven.compiler.target&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;project.build.sourceEncoding&gt;UTF-8&lt;/project.build.sourceEncoding&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;beam.version&gt;2.56.0&lt;/beam.version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;flink.version&gt;1.17.1&lt;/flink.version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;iceberg.version&gt;1.4.2&lt;/iceberg.version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;kafka.version&gt;3.6.1&lt;/kafka.version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;hive.version&gt;3.1.3&lt;/hive.version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;hadoop.version&gt;3.3.6&lt;/hadoop.version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;groupId&gt;org.apache.beam&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;beam-sdks-java-core&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;version&gt;${beam.version}&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;beam-runners-flink-1.17&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;beam-runners-direct-java&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;beam-sdks-java-io-iceberg&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;groupId&gt;org.apache.parquet&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;artifactId&gt;parquet-column&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;groupId&gt;org.apache.hadoop&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;hadoop-common&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;version&gt;${hadoop.version}&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;groupId&gt;org.apache.avro&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;artifactId&gt;avro&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;hadoop-client&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;groupId&gt;org.apache.thrift&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;libthrift&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;version&gt;0.11.0&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;groupId&gt;org.apache.hive&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;hive-metastore&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;version&gt;${hive.version}&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;artifactId&gt;parquet-hadoop-bundle&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;groupId&gt;org.apache.iceberg&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;iceberg-hive-metastore&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;version&gt;${iceberg.version}&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;iceberg-data&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;groupId&gt;org.slf4j&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;slf4j-api&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;version&gt;2.0.16&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;groupId&gt;ch.qos.logback&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;logback-classic&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;version&gt;1.2.11&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/dependencies&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;!-- 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复制所有依赖到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> target/lib </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">目录 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;plugin&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;artifactId&gt;maven-dependency-plugin&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;version&gt;3.6.1&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;id&gt;copy-dependencies&lt;/id&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;phase&gt;package&lt;/phase&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            &lt;goal&gt;copy-dependencies&lt;/goal&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            &lt;outputDirectory&gt;${project.build.directory}/lib&lt;/outputDirectory&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            &lt;overWriteReleases&gt;false&lt;/overWriteReleases&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            &lt;overWriteSnapshots&gt;false&lt;/overWriteSnapshots&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;!-- 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Main-Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Class-Path </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MANIFEST.MF --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;artifactId&gt;maven-jar-plugin&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;version&gt;3.3.0&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            &lt;addClasspath&gt;true&lt;/addClasspath&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            &lt;!-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> lib </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">目录中的依赖 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                            &lt;classpathPrefix&gt;lib/&lt;/classpathPrefix&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            &lt;!-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">替换为你的主类全限定名 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                            &lt;mainClass&gt;sl.lyt.main.hive3.IcebergAPITest&lt;/mainClass&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String location = table.location();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .forTable(table)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .build()) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            appender.add(record);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .build())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .commit();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            records.forEach(outputRecord -&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            });</t>
+  </si>
+  <si>
+    <t>//        Expression filter = Expressions.equal("id", 101);</t>
+  </si>
+  <si>
+    <t>//        try (CloseableIterable&lt;Record&gt; filtered = IcebergGenerics.read(table).where(filter).build()) {</t>
+  </si>
+  <si>
+    <t>//            filtered.forEach(...);</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.*;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.data.IcebergGenerics;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.data.parquet.GenericParquetWriter;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.io.CloseableIterable;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.io.FileAppender;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.parquet.Parquet;</t>
+  </si>
+  <si>
+    <t>import java.io.IOException;</t>
+  </si>
+  <si>
+    <t>import java.util.*;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.expressions.Expressions;</t>
+  </si>
+  <si>
+    <t>import org.apache.iceberg.expressions.Expression;</t>
+  </si>
+  <si>
+    <t>public class IcebergAPITest0609 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] args) throws IOException {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>TableIdentifier tableIdentifier = TableIdentifier.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("default", "ice_table_0609");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Types.NestedField.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(2, "name", Types.StringType.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Table table = catalog.loadTable(tableIdentifier);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println("table location = " + location);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构造记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Record record = GenericRecord.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table.schema());</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        record.setField("id", 101);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        record.setField("name", "Alice");</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写入数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>try (FileAppender&lt;Record&gt; appender = Parquet.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(Files.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>localOutput</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>("/tmp/data.parquet"))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                .createWriterFunc(GenericParquetWriter::</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>buildWriter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        } catch (IOException e) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            throw new RuntimeException(e);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交事务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>table.newAppend()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                .appendFile(DataFiles.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>builder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table.spec())</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .withPath("/tmp/data.parquet")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .withFileSizeInBytes(1024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        .withRecordCount(1)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全表扫描</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>try (CloseableIterable&lt;Record&gt; records = IcebergGenerics.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table).build()) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.println(outputRecord.getField("id") + ": " + outputRecord.getField("name"));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//        // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件过滤</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Licensed to the Apache Software Foundation (ASF) under one or more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  contributor license agreements.  See the NOTICE file distributed with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  this work for additional information regarding copyright ownership.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The ASF licenses this file to You under the Apache License, Version 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (the "License"); you may not use this file except in compliance with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the License.  You may obtain a copy of the License at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      http://www.apache.org/licenses/LICENSE-2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Unless required by applicable law or agreed to in writing, software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  distributed under the License is distributed on an "AS IS" BASIS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  See the License for the specific language governing permissions and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  limitations under the License.</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;licenses&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;license&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/license&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/licenses&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;developers&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;developer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/developer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/developers&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;mailingLists&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;mailingList&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/mailingList&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/mailingLists&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;scm&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/scm&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;issueManagement&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/issueManagement&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;dependencies&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;exclusions&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;exclusion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/exclusion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/exclusions&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/dependencies&gt;</t>
+  </si>
+  <si>
+    <t>&lt;project xmlns="http://maven.apache.org/POM/4.0.0" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xsi:schemaLocation="http://maven.apache.org/POM/4.0.0 https://maven.apache.org/xsd/maven-4.0.0.xsd"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;!--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;modelVersion&gt;4.0.0&lt;/modelVersion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;groupId&gt;org.apache.beam&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;artifactId&gt;beam-sdks-java-io-iceberg&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;version&gt;2.56.0&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;url&gt;http://beam.apache.org&lt;/url&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;inceptionYear&gt;2016&lt;/inceptionYear&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;name&gt;Apache License, Version 2.0&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;url&gt;http://www.apache.org/licenses/LICENSE-2.0.txt&lt;/url&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;distribution&gt;repo&lt;/distribution&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;name&gt;The Apache Beam Team&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;email&gt;dev@beam.apache.org&lt;/email&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;url&gt;http://beam.apache.org&lt;/url&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;organization&gt;Apache Software Foundation&lt;/organization&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;organizationUrl&gt;http://www.apache.org&lt;/organizationUrl&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;name&gt;Beam Dev&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;subscribe&gt;dev-subscribe@beam.apache.org&lt;/subscribe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;unsubscribe&gt;dev-unsubscribe@beam.apache.org&lt;/unsubscribe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;post&gt;dev@beam.apache.org&lt;/post&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;archive&gt;http://www.mail-archive.com/dev%beam.apache.org&lt;/archive&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;name&gt;Beam User&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;subscribe&gt;user-subscribe@beam.apache.org&lt;/subscribe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;unsubscribe&gt;user-unsubscribe@beam.apache.org&lt;/unsubscribe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;post&gt;user@beam.apache.org&lt;/post&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;archive&gt;http://www.mail-archive.com/user%beam.apache.org&lt;/archive&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;name&gt;Beam Commits&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;subscribe&gt;commits-subscribe@beam.apache.org&lt;/subscribe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;unsubscribe&gt;commits-unsubscribe@beam.apache.org&lt;/unsubscribe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;post&gt;commits@beam.apache.org&lt;/post&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;archive&gt;http://www.mail-archive.com/commits%beam.apache.org&lt;/archive&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;connection&gt;scm:git:https://gitbox.apache.org/repos/asf/beam.git&lt;/connection&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;developerConnection&gt;scm:git:https://gitbox.apache.org/repos/asf/beam.git&lt;/developerConnection&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;url&gt;https://gitbox.apache.org/repos/asf?p=beam.git;a=summary&lt;/url&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;system&gt;github&lt;/system&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;url&gt;https://github.com/apache/beam/issues&lt;/url&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;org.checkerframework&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;checker-qual&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;3.42.0&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;scope&gt;compile&lt;/scope&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;groupId&gt;org.checkerframework&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;artifactId&gt;jdk8&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;groupId&gt;com.google.guava&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;artifactId&gt;guava-jdk5&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;groupId&gt;jdk.tools&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;artifactId&gt;jdk.tools&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;groupId&gt;com.google.protobuf&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;artifactId&gt;protobuf-lite&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;groupId&gt;org.hamcrest&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;artifactId&gt;hamcrest-all&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;org.apache.beam&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;beam-vendor-guava-32_1_2-jre&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;0.1&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;beam-sdks-java-core&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;2.56.0&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;beam-sdks-java-managed&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;org.slf4j&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;slf4j-api&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;1.7.30&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;joda-time&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;joda-time&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;2.10.10&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;org.apache.parquet&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;parquet-column&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;1.12.0&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;org.apache.orc&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;orc-core&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;1.9.2&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;org.apache.iceberg&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;iceberg-core&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;1.4.2&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;iceberg-api&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;iceberg-parquet&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;iceberg-orc&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;org.apache.hadoop&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;hadoop-common&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;2.10.2&lt;/version&gt;</t>
   </si>
 </sst>
 </file>
@@ -3585,7 +4901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3606,6 +4922,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4732,7 +6049,7 @@
   <dimension ref="B2:S89"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85:L89"/>
+      <selection activeCell="H86" sqref="G86:H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5223,7 +6540,7 @@
     </row>
     <row r="87" spans="3:12">
       <c r="L87" t="s">
-        <v>109</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="3:12">
@@ -5247,7 +6564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92A6FA8-1744-4A2F-A6AC-67AF105D2C84}">
   <dimension ref="B2:D227"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
@@ -5878,8 +7195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D562625A-C3E6-4212-89B6-56DCBE202CA0}">
   <dimension ref="B2:S596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="I563" sqref="I563"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8300,4 +9617,3167 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335B852A-8B25-493A-AC80-EC8016AF7DA2}">
+  <dimension ref="B1:R437"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18">
+      <c r="R1" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="3"/>
+      <c r="R7" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="3"/>
+      <c r="R11" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="3"/>
+      <c r="R23" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="B43" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="B47" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="B48" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18">
+      <c r="B49" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18">
+      <c r="B50" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18">
+      <c r="B52" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="B54" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18">
+      <c r="B58" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18">
+      <c r="B63" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18">
+      <c r="B64" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18">
+      <c r="B65" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="B66" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18">
+      <c r="B67" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18">
+      <c r="B68" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
+      <c r="B69" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18">
+      <c r="B70" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="B71" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="B72" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18">
+      <c r="B73" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18">
+      <c r="B74" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18">
+      <c r="B75" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18">
+      <c r="B76" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18">
+      <c r="B77" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="B78" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="B79" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18">
+      <c r="B80" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18">
+      <c r="B81" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18">
+      <c r="B82" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18">
+      <c r="B83" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18">
+      <c r="B84" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
+      <c r="B85" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18">
+      <c r="B86" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18">
+      <c r="B87" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18">
+      <c r="B88" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18">
+      <c r="B89" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18">
+      <c r="B90" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18">
+      <c r="B91" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18">
+      <c r="B92" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18">
+      <c r="B93" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18">
+      <c r="B94" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18">
+      <c r="B95" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18">
+      <c r="B96" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18">
+      <c r="B97" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18">
+      <c r="B98" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18">
+      <c r="B99" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18">
+      <c r="B100" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18">
+      <c r="B101" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18">
+      <c r="B102" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18">
+      <c r="B103" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18">
+      <c r="B104" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18">
+      <c r="B105" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18">
+      <c r="B106" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18">
+      <c r="B107" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18">
+      <c r="B108" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18">
+      <c r="B109" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18">
+      <c r="B110" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18">
+      <c r="B111" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18">
+      <c r="B112" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18">
+      <c r="B113" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="114" spans="2:18">
+      <c r="B114" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18">
+      <c r="B115" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="116" spans="2:18">
+      <c r="B116" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="117" spans="2:18">
+      <c r="B117" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="118" spans="2:18">
+      <c r="B118" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="119" spans="2:18">
+      <c r="B119" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="120" spans="2:18">
+      <c r="B120" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="121" spans="2:18">
+      <c r="B121" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="R121" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18">
+      <c r="B122" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="R122" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="123" spans="2:18">
+      <c r="B123" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="124" spans="2:18">
+      <c r="B124" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="125" spans="2:18">
+      <c r="B125" s="3"/>
+      <c r="R125" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="126" spans="2:18">
+      <c r="B126" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="127" spans="2:18">
+      <c r="B127" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="2:18">
+      <c r="B128" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18">
+      <c r="B129" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="130" spans="2:18">
+      <c r="B130" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="R130" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18">
+      <c r="B131" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="R131" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18">
+      <c r="B132" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="133" spans="2:18">
+      <c r="B133" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="R133" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="134" spans="2:18">
+      <c r="B134" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="R134" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="135" spans="2:18">
+      <c r="B135" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="R135" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="136" spans="2:18">
+      <c r="B136" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="R136" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="137" spans="2:18">
+      <c r="B137" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="R137" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="138" spans="2:18">
+      <c r="B138" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="139" spans="2:18">
+      <c r="B139" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="140" spans="2:18">
+      <c r="B140" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="141" spans="2:18">
+      <c r="B141" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="R141" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="142" spans="2:18">
+      <c r="B142" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="R142" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="143" spans="2:18">
+      <c r="B143" s="3"/>
+      <c r="R143" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="144" spans="2:18">
+      <c r="B144" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="145" spans="2:18">
+      <c r="B145" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="146" spans="2:18">
+      <c r="B146" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="R146" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="147" spans="2:18">
+      <c r="B147" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="R147" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="148" spans="2:18">
+      <c r="B148" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="149" spans="2:18">
+      <c r="B149" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="R149" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="150" spans="2:18">
+      <c r="B150" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="R150" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="151" spans="2:18">
+      <c r="B151" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="R151" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="152" spans="2:18">
+      <c r="B152" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="153" spans="2:18">
+      <c r="B153" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="154" spans="2:18">
+      <c r="B154" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R154" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="155" spans="2:18">
+      <c r="B155" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" spans="2:18">
+      <c r="B156" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" spans="2:18">
+      <c r="B157" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="R157" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="158" spans="2:18">
+      <c r="B158" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="R158" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="159" spans="2:18">
+      <c r="B159" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="R159" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="160" spans="2:18">
+      <c r="B160" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="R160" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="161" spans="2:18">
+      <c r="B161" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="R161" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="162" spans="2:18">
+      <c r="B162" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="R162" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="163" spans="2:18">
+      <c r="B163" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="R163" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="164" spans="2:18">
+      <c r="B164" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="R164" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="165" spans="2:18">
+      <c r="B165" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="R165" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="166" spans="2:18">
+      <c r="B166" s="3"/>
+      <c r="R166" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="167" spans="2:18">
+      <c r="B167" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="R167" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="168" spans="2:18">
+      <c r="B168" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="R168" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="169" spans="2:18">
+      <c r="B169" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="R169" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="170" spans="2:18">
+      <c r="B170" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="R170" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="171" spans="2:18">
+      <c r="B171" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="R171" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="172" spans="2:18">
+      <c r="B172" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="R172" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="173" spans="2:18">
+      <c r="B173" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="R173" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="174" spans="2:18">
+      <c r="B174" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="R174" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="175" spans="2:18">
+      <c r="B175" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="R175" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="176" spans="2:18">
+      <c r="B176" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="R176" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="177" spans="2:18">
+      <c r="B177" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="R177" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="178" spans="2:18">
+      <c r="B178" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="R178" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="179" spans="2:18">
+      <c r="B179" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="R179" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="180" spans="2:18">
+      <c r="B180" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="R180" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="181" spans="2:18">
+      <c r="B181" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="R181" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="182" spans="2:18">
+      <c r="B182" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="R182" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="183" spans="2:18">
+      <c r="B183" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="R183" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="184" spans="2:18">
+      <c r="B184" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="R184" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="2:18">
+      <c r="B185" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="R185" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="186" spans="2:18">
+      <c r="B186" s="3"/>
+      <c r="R186" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="187" spans="2:18">
+      <c r="B187" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="R187" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="188" spans="2:18">
+      <c r="R188" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="189" spans="2:18">
+      <c r="R189" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="190" spans="2:18">
+      <c r="R190" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="191" spans="2:18">
+      <c r="R191" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="192" spans="2:18">
+      <c r="R192" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="193" spans="18:18">
+      <c r="R193" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="194" spans="18:18">
+      <c r="R194" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="195" spans="18:18">
+      <c r="R195" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="196" spans="18:18">
+      <c r="R196" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="197" spans="18:18">
+      <c r="R197" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="198" spans="18:18">
+      <c r="R198" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="199" spans="18:18">
+      <c r="R199" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="200" spans="18:18">
+      <c r="R200" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="201" spans="18:18">
+      <c r="R201" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="202" spans="18:18">
+      <c r="R202" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="203" spans="18:18">
+      <c r="R203" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="204" spans="18:18">
+      <c r="R204" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="205" spans="18:18">
+      <c r="R205" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="206" spans="18:18">
+      <c r="R206" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="207" spans="18:18">
+      <c r="R207" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="208" spans="18:18">
+      <c r="R208" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="209" spans="18:18">
+      <c r="R209" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="210" spans="18:18">
+      <c r="R210" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="211" spans="18:18">
+      <c r="R211" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="212" spans="18:18">
+      <c r="R212" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="213" spans="18:18">
+      <c r="R213" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="214" spans="18:18">
+      <c r="R214" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="215" spans="18:18">
+      <c r="R215" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="216" spans="18:18">
+      <c r="R216" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="217" spans="18:18">
+      <c r="R217" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="218" spans="18:18">
+      <c r="R218" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="219" spans="18:18">
+      <c r="R219" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="220" spans="18:18">
+      <c r="R220" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="221" spans="18:18">
+      <c r="R221" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="222" spans="18:18">
+      <c r="R222" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="223" spans="18:18">
+      <c r="R223" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="224" spans="18:18">
+      <c r="R224" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="225" spans="18:18">
+      <c r="R225" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="226" spans="18:18">
+      <c r="R226" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="227" spans="18:18">
+      <c r="R227" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="228" spans="18:18">
+      <c r="R228" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="229" spans="18:18">
+      <c r="R229" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18">
+      <c r="R230" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="231" spans="18:18">
+      <c r="R231" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="232" spans="18:18">
+      <c r="R232" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="233" spans="18:18">
+      <c r="R233" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="234" spans="18:18">
+      <c r="R234" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="235" spans="18:18">
+      <c r="R235" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="236" spans="18:18">
+      <c r="R236" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="237" spans="18:18">
+      <c r="R237" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="238" spans="18:18">
+      <c r="R238" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="239" spans="18:18">
+      <c r="R239" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="240" spans="18:18">
+      <c r="R240" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="241" spans="18:18">
+      <c r="R241" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="242" spans="18:18">
+      <c r="R242" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="243" spans="18:18">
+      <c r="R243" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="244" spans="18:18">
+      <c r="R244" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="245" spans="18:18">
+      <c r="R245" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="246" spans="18:18">
+      <c r="R246" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="247" spans="18:18">
+      <c r="R247" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="248" spans="18:18">
+      <c r="R248" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="249" spans="18:18">
+      <c r="R249" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="250" spans="18:18">
+      <c r="R250" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="251" spans="18:18">
+      <c r="R251" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="252" spans="18:18">
+      <c r="R252" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="253" spans="18:18">
+      <c r="R253" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="254" spans="18:18">
+      <c r="R254" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="255" spans="18:18">
+      <c r="R255" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="256" spans="18:18">
+      <c r="R256" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="257" spans="18:18">
+      <c r="R257" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="258" spans="18:18">
+      <c r="R258" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="259" spans="18:18">
+      <c r="R259" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="260" spans="18:18">
+      <c r="R260" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="261" spans="18:18">
+      <c r="R261" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="262" spans="18:18">
+      <c r="R262" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="263" spans="18:18">
+      <c r="R263" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="264" spans="18:18">
+      <c r="R264" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="265" spans="18:18">
+      <c r="R265" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="266" spans="18:18">
+      <c r="R266" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="267" spans="18:18">
+      <c r="R267" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="268" spans="18:18">
+      <c r="R268" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="269" spans="18:18">
+      <c r="R269" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="270" spans="18:18">
+      <c r="R270" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="271" spans="18:18">
+      <c r="R271" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="272" spans="18:18">
+      <c r="R272" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="273" spans="18:18">
+      <c r="R273" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="274" spans="18:18">
+      <c r="R274" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="275" spans="18:18">
+      <c r="R275" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="276" spans="18:18">
+      <c r="R276" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="277" spans="18:18">
+      <c r="R277" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="278" spans="18:18">
+      <c r="R278" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="279" spans="18:18">
+      <c r="R279" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="280" spans="18:18">
+      <c r="R280" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="281" spans="18:18">
+      <c r="R281" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="282" spans="18:18">
+      <c r="R282" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="283" spans="18:18">
+      <c r="R283" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="284" spans="18:18">
+      <c r="R284" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="285" spans="18:18">
+      <c r="R285" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="286" spans="18:18">
+      <c r="R286" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="287" spans="18:18">
+      <c r="R287" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="288" spans="18:18">
+      <c r="R288" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="289" spans="18:18">
+      <c r="R289" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="290" spans="18:18">
+      <c r="R290" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="291" spans="18:18">
+      <c r="R291" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="292" spans="18:18">
+      <c r="R292" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="293" spans="18:18">
+      <c r="R293" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="294" spans="18:18">
+      <c r="R294" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="295" spans="18:18">
+      <c r="R295" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="296" spans="18:18">
+      <c r="R296" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="297" spans="18:18">
+      <c r="R297" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="298" spans="18:18">
+      <c r="R298" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="299" spans="18:18">
+      <c r="R299" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="300" spans="18:18">
+      <c r="R300" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="301" spans="18:18">
+      <c r="R301" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="302" spans="18:18">
+      <c r="R302" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="303" spans="18:18">
+      <c r="R303" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="304" spans="18:18">
+      <c r="R304" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="305" spans="18:18">
+      <c r="R305" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="306" spans="18:18">
+      <c r="R306" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="307" spans="18:18">
+      <c r="R307" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="308" spans="18:18">
+      <c r="R308" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="309" spans="18:18">
+      <c r="R309" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="310" spans="18:18">
+      <c r="R310" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="311" spans="18:18">
+      <c r="R311" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="312" spans="18:18">
+      <c r="R312" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="313" spans="18:18">
+      <c r="R313" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="314" spans="18:18">
+      <c r="R314" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="315" spans="18:18">
+      <c r="R315" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="316" spans="18:18">
+      <c r="R316" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="317" spans="18:18">
+      <c r="R317" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="318" spans="18:18">
+      <c r="R318" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="319" spans="18:18">
+      <c r="R319" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="320" spans="18:18">
+      <c r="R320" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="321" spans="18:18">
+      <c r="R321" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="322" spans="18:18">
+      <c r="R322" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="323" spans="18:18">
+      <c r="R323" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="324" spans="18:18">
+      <c r="R324" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="325" spans="18:18">
+      <c r="R325" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="326" spans="18:18">
+      <c r="R326" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="327" spans="18:18">
+      <c r="R327" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="328" spans="18:18">
+      <c r="R328" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="329" spans="18:18">
+      <c r="R329" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="330" spans="18:18">
+      <c r="R330" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="331" spans="18:18">
+      <c r="R331" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="332" spans="18:18">
+      <c r="R332" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="333" spans="18:18">
+      <c r="R333" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="334" spans="18:18">
+      <c r="R334" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="335" spans="18:18">
+      <c r="R335" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="336" spans="18:18">
+      <c r="R336" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="337" spans="18:18">
+      <c r="R337" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="338" spans="18:18">
+      <c r="R338" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="339" spans="18:18">
+      <c r="R339" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="340" spans="18:18">
+      <c r="R340" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="341" spans="18:18">
+      <c r="R341" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="342" spans="18:18">
+      <c r="R342" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="343" spans="18:18">
+      <c r="R343" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="344" spans="18:18">
+      <c r="R344" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="345" spans="18:18">
+      <c r="R345" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="346" spans="18:18">
+      <c r="R346" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="347" spans="18:18">
+      <c r="R347" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="348" spans="18:18">
+      <c r="R348" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="349" spans="18:18">
+      <c r="R349" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="350" spans="18:18">
+      <c r="R350" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="351" spans="18:18">
+      <c r="R351" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="352" spans="18:18">
+      <c r="R352" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="353" spans="18:18">
+      <c r="R353" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="354" spans="18:18">
+      <c r="R354" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="355" spans="18:18">
+      <c r="R355" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="356" spans="18:18">
+      <c r="R356" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="357" spans="18:18">
+      <c r="R357" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="358" spans="18:18">
+      <c r="R358" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="359" spans="18:18">
+      <c r="R359" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="360" spans="18:18">
+      <c r="R360" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="361" spans="18:18">
+      <c r="R361" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="362" spans="18:18">
+      <c r="R362" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="363" spans="18:18">
+      <c r="R363" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="364" spans="18:18">
+      <c r="R364" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="365" spans="18:18">
+      <c r="R365" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="366" spans="18:18">
+      <c r="R366" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="367" spans="18:18">
+      <c r="R367" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="368" spans="18:18">
+      <c r="R368" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="369" spans="18:18">
+      <c r="R369" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="370" spans="18:18">
+      <c r="R370" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="371" spans="18:18">
+      <c r="R371" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="372" spans="18:18">
+      <c r="R372" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="373" spans="18:18">
+      <c r="R373" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="374" spans="18:18">
+      <c r="R374" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="375" spans="18:18">
+      <c r="R375" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="376" spans="18:18">
+      <c r="R376" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="377" spans="18:18">
+      <c r="R377" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="378" spans="18:18">
+      <c r="R378" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="379" spans="18:18">
+      <c r="R379" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="380" spans="18:18">
+      <c r="R380" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="381" spans="18:18">
+      <c r="R381" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="382" spans="18:18">
+      <c r="R382" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="383" spans="18:18">
+      <c r="R383" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="384" spans="18:18">
+      <c r="R384" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="385" spans="18:18">
+      <c r="R385" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="386" spans="18:18">
+      <c r="R386" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="387" spans="18:18">
+      <c r="R387" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="388" spans="18:18">
+      <c r="R388" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="389" spans="18:18">
+      <c r="R389" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="390" spans="18:18">
+      <c r="R390" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="391" spans="18:18">
+      <c r="R391" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="392" spans="18:18">
+      <c r="R392" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="393" spans="18:18">
+      <c r="R393" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="394" spans="18:18">
+      <c r="R394" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="395" spans="18:18">
+      <c r="R395" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="396" spans="18:18">
+      <c r="R396" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="397" spans="18:18">
+      <c r="R397" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="398" spans="18:18">
+      <c r="R398" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="399" spans="18:18">
+      <c r="R399" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="400" spans="18:18">
+      <c r="R400" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="401" spans="18:18">
+      <c r="R401" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="402" spans="18:18">
+      <c r="R402" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="403" spans="18:18">
+      <c r="R403" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="404" spans="18:18">
+      <c r="R404" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="405" spans="18:18">
+      <c r="R405" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="406" spans="18:18">
+      <c r="R406" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="407" spans="18:18">
+      <c r="R407" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="408" spans="18:18">
+      <c r="R408" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="409" spans="18:18">
+      <c r="R409" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="410" spans="18:18">
+      <c r="R410" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="411" spans="18:18">
+      <c r="R411" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="412" spans="18:18">
+      <c r="R412" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="413" spans="18:18">
+      <c r="R413" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="414" spans="18:18">
+      <c r="R414" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="415" spans="18:18">
+      <c r="R415" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="416" spans="18:18">
+      <c r="R416" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="417" spans="18:18">
+      <c r="R417" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="418" spans="18:18">
+      <c r="R418" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="419" spans="18:18">
+      <c r="R419" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="420" spans="18:18">
+      <c r="R420" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="421" spans="18:18">
+      <c r="R421" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="422" spans="18:18">
+      <c r="R422" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="423" spans="18:18">
+      <c r="R423" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="424" spans="18:18">
+      <c r="R424" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="425" spans="18:18">
+      <c r="R425" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="426" spans="18:18">
+      <c r="R426" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="427" spans="18:18">
+      <c r="R427" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="428" spans="18:18">
+      <c r="R428" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="429" spans="18:18">
+      <c r="R429" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="430" spans="18:18">
+      <c r="R430" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="431" spans="18:18">
+      <c r="R431" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="432" spans="18:18">
+      <c r="R432" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="433" spans="18:18">
+      <c r="R433" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="434" spans="18:18">
+      <c r="R434" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="435" spans="18:18">
+      <c r="R435" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="436" spans="18:18">
+      <c r="R436" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="437" spans="18:18">
+      <c r="R437" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F520587-E534-4868-9941-B5359F454F44}">
+  <dimension ref="B2:B86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>